--- a/assets/research/Formulario sin título (Respuestas).xlsx
+++ b/assets/research/Formulario sin título (Respuestas).xlsx
@@ -1,17 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Pollex\FreeTime\Laboratoria\Tercer Sprint\hackathon-saga\assets\research\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6120"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId3"/>
+    <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Respuestas de formulario 1'!$A$1:$J$53</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="176">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -533,73 +544,353 @@
   </si>
   <si>
     <t xml:space="preserve">Filtro con todos los detalles (desde género hasta país y año de realización). </t>
+  </si>
+  <si>
+    <t>Genero</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="14" width="21.57"/>
+    <col min="1" max="15" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -607,129 +898,144 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>173</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>43116.64575548611</v>
+        <v>43116.645755486112</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>174</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>43116.64613609954</v>
+        <v>43116.646136099538</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>43116.64622113426</v>
+        <v>43116.646221134259</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>43116.64719282408</v>
+        <v>43116.647192824079</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43116.64797200232</v>
       </c>
@@ -737,103 +1043,115 @@
         <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>43116.64801399306</v>
+        <v>43116.648013993057</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>43116.64858770833</v>
+        <v>43116.648587708332</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>174</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>43116.65611271991</v>
+        <v>43116.656112719909</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43116.65683368055</v>
       </c>
@@ -841,77 +1159,86 @@
         <v>38</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>174</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>43116.65686844908</v>
+        <v>43116.656868449078</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="H11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>43116.65765125</v>
+        <v>43116.657651250003</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43116.658089351855</v>
       </c>
@@ -919,51 +1246,57 @@
         <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>43116.66165663194</v>
+        <v>43116.661656631943</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>174</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43116.662134224534</v>
       </c>
@@ -971,51 +1304,57 @@
         <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>43116.66281552083</v>
+        <v>43116.662815520831</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43116.663599363426</v>
       </c>
@@ -1023,51 +1362,57 @@
         <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>61</v>
+        <v>174</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>43116.66373796297</v>
+        <v>43116.663737962968</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>64</v>
+        <v>175</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43116.66613096065</v>
       </c>
@@ -1075,259 +1420,289 @@
         <v>66</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>43116.66908723379</v>
+        <v>43116.669087233793</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>70</v>
+        <v>174</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>43116.67336981482</v>
+        <v>43116.673369814816</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>43116.67665083334</v>
+        <v>43116.676650833338</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>43116.67753956019</v>
+        <v>43116.677539560187</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>43116.67773510417</v>
+        <v>43116.677735104167</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>43116.67860782407</v>
+        <v>43116.678607824069</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>43116.68263296296</v>
+        <v>43116.682632962962</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>88</v>
+        <v>175</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>43116.69638284722</v>
+        <v>43116.696382847222</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H27" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>43116.69875946759</v>
+        <v>43116.698759467588</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>94</v>
+        <v>174</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>43116.701562476854</v>
       </c>
@@ -1335,25 +1710,28 @@
         <v>97</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>43116.7066981713</v>
       </c>
@@ -1361,51 +1739,57 @@
         <v>100</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>43116.71934079861</v>
+        <v>43116.719340798612</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>43116.726653171296</v>
       </c>
@@ -1413,25 +1797,28 @@
         <v>106</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>43116.730095694445</v>
       </c>
@@ -1439,51 +1826,57 @@
         <v>110</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>43116.73253854166</v>
+        <v>43116.732538541663</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>114</v>
+        <v>174</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>43116.73649059028</v>
       </c>
@@ -1491,77 +1884,86 @@
         <v>116</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>43116.73819037037</v>
+        <v>43116.738190370372</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="37" ht="26.25">
+    <row r="37" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>43116.74072695602</v>
+        <v>43116.740726956021</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>123</v>
+        <v>174</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43116.74388115741</v>
       </c>
@@ -1569,25 +1971,28 @@
         <v>125</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>43116.760523136574</v>
       </c>
@@ -1595,207 +2000,231 @@
         <v>128</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>43116.78087806713</v>
+        <v>43116.780878067133</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>43116.78840173611</v>
+        <v>43116.788401736107</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>43116.7994650926</v>
+        <v>43116.799465092598</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>43116.82472444444</v>
+        <v>43116.824724444443</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43116.84451355324</v>
+        <v>43116.844513553238</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H44" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>43116.88183331018</v>
+        <v>43116.881833310181</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G45" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>43116.89279608797</v>
+        <v>43116.892796087966</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="47" ht="37.5">
+    <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>43116.903425613425</v>
       </c>
@@ -1803,25 +2232,28 @@
         <v>152</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="F47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G47" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="H47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>43116.912396377316</v>
       </c>
@@ -1829,25 +2261,28 @@
         <v>155</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="G48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:9" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>43117.005260000005</v>
       </c>
@@ -1855,77 +2290,86 @@
         <v>158</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>11</v>
+        <v>159</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>43117.01413527778</v>
+        <v>43117.014135277779</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>11</v>
+        <v>162</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G50" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="I50" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <v>43117.10150626158</v>
+        <v>43117.101506261577</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>43117.356696689814</v>
       </c>
@@ -1933,51 +2377,64 @@
         <v>167</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="H52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <v>43117.40794574074</v>
+        <v>43117.407945740742</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>46</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>11</v>
+        <v>171</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>172</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:J53">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="m"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>